--- a/test_data2/issvd_rows.xlsx
+++ b/test_data2/issvd_rows.xlsx
@@ -451,13 +451,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -465,13 +465,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -479,13 +479,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -499,21 +499,21 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -521,44 +521,44 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -577,16 +577,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -597,10 +597,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -619,16 +619,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -647,55 +647,55 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -703,16 +703,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -731,16 +731,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -759,16 +759,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -807,35 +807,35 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -885,41 +885,41 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -927,16 +927,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1011,27 +1011,27 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
@@ -1067,13 +1067,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -1095,13 +1095,13 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -1109,13 +1109,13 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -1151,13 +1151,13 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -1179,27 +1179,27 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -1221,16 +1221,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1249,16 +1249,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1291,13 +1291,13 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -1305,16 +1305,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1361,16 +1361,16 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1389,16 +1389,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1409,10 +1409,10 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1431,16 +1431,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1487,27 +1487,27 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -1515,30 +1515,30 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1577,38 +1577,38 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1619,24 +1619,24 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -1669,13 +1669,13 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -1697,13 +1697,13 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -1725,44 +1725,44 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -1823,13 +1823,13 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -1837,13 +1837,13 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -1851,13 +1851,13 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -1865,41 +1865,41 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
@@ -1963,16 +1963,16 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -2011,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -2025,10 +2025,10 @@
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -2047,30 +2047,30 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -2081,10 +2081,10 @@
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -2117,27 +2117,27 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -2145,30 +2145,30 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -2215,30 +2215,30 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -2299,16 +2299,16 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -2319,35 +2319,35 @@
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
@@ -2361,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -2383,13 +2383,13 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
@@ -2445,10 +2445,10 @@
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -2459,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -2509,16 +2509,16 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -2565,13 +2565,13 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -2607,44 +2607,44 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -2663,30 +2663,30 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
       </c>
       <c r="D161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -2697,35 +2697,35 @@
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -2733,13 +2733,13 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -2753,10 +2753,10 @@
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -2789,30 +2789,30 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
       </c>
       <c r="D169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -2845,16 +2845,16 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -2865,10 +2865,10 @@
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2887,27 +2887,27 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D177" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D178" t="n">
         <v>1</v>
@@ -2943,16 +2943,16 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
       </c>
       <c r="D180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -2977,10 +2977,10 @@
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -2991,94 +2991,94 @@
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
       </c>
       <c r="D189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -3103,10 +3103,10 @@
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -3167,13 +3167,13 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D196" t="n">
         <v>0</v>
@@ -3195,13 +3195,13 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D198" t="n">
         <v>0</v>
@@ -3209,13 +3209,13 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199" t="n">
         <v>0</v>
@@ -3223,13 +3223,13 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D200" t="n">
         <v>0</v>
@@ -3284,13 +3284,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3298,13 +3298,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3312,13 +3312,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3332,21 +3332,21 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3354,44 +3354,44 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -3410,16 +3410,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -3430,10 +3430,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -3452,16 +3452,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -3480,55 +3480,55 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -3536,16 +3536,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -3564,16 +3564,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -3592,16 +3592,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -3640,35 +3640,35 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -3718,41 +3718,41 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3760,16 +3760,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3844,27 +3844,27 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3892,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
@@ -3900,13 +3900,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -3928,13 +3928,13 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -3942,13 +3942,13 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -3984,13 +3984,13 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -4012,27 +4012,27 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -4054,16 +4054,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -4082,16 +4082,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -4124,13 +4124,13 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -4138,16 +4138,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -4194,16 +4194,16 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -4222,16 +4222,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -4242,10 +4242,10 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -4264,16 +4264,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -4320,27 +4320,27 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -4348,30 +4348,30 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -4410,38 +4410,38 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -4452,24 +4452,24 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -4502,13 +4502,13 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -4530,13 +4530,13 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -4558,44 +4558,44 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -4656,13 +4656,13 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -4670,13 +4670,13 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -4684,13 +4684,13 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -4698,41 +4698,41 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
@@ -4796,16 +4796,16 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -4844,10 +4844,10 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -4858,10 +4858,10 @@
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -4880,30 +4880,30 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -4914,10 +4914,10 @@
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -4950,27 +4950,27 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -4978,30 +4978,30 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -5048,30 +5048,30 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -5132,16 +5132,16 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -5152,35 +5152,35 @@
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
@@ -5194,10 +5194,10 @@
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -5216,13 +5216,13 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
@@ -5278,10 +5278,10 @@
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -5292,10 +5292,10 @@
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -5342,16 +5342,16 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -5362,10 +5362,10 @@
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -5398,13 +5398,13 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -5440,44 +5440,44 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -5496,30 +5496,30 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
       </c>
       <c r="D161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -5530,35 +5530,35 @@
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -5566,13 +5566,13 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -5586,10 +5586,10 @@
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -5622,30 +5622,30 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
       </c>
       <c r="D169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -5678,16 +5678,16 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -5698,10 +5698,10 @@
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -5720,27 +5720,27 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D177" t="n">
         <v>0</v>
@@ -5754,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D178" t="n">
         <v>1</v>
@@ -5776,16 +5776,16 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
       </c>
       <c r="D180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -5810,10 +5810,10 @@
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -5824,94 +5824,94 @@
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
       </c>
       <c r="D189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -5936,10 +5936,10 @@
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -6000,13 +6000,13 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D196" t="n">
         <v>0</v>
@@ -6028,13 +6028,13 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D198" t="n">
         <v>0</v>
@@ -6042,13 +6042,13 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199" t="n">
         <v>0</v>
@@ -6056,13 +6056,13 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D200" t="n">
         <v>0</v>
@@ -6117,13 +6117,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -6131,13 +6131,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6145,13 +6145,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -6165,21 +6165,21 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -6187,44 +6187,44 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -6243,16 +6243,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -6263,10 +6263,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -6285,16 +6285,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -6313,55 +6313,55 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -6369,16 +6369,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -6397,16 +6397,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -6425,16 +6425,16 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -6473,35 +6473,35 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -6551,41 +6551,41 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -6593,16 +6593,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -6677,27 +6677,27 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -6725,7 +6725,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
@@ -6733,13 +6733,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -6761,13 +6761,13 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -6775,13 +6775,13 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -6817,13 +6817,13 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -6845,27 +6845,27 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -6887,16 +6887,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -6915,16 +6915,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -6957,13 +6957,13 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -6971,16 +6971,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -7027,16 +7027,16 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -7055,16 +7055,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -7075,10 +7075,10 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -7097,16 +7097,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -7153,27 +7153,27 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
@@ -7181,30 +7181,30 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -7243,38 +7243,38 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -7285,24 +7285,24 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -7335,13 +7335,13 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -7363,13 +7363,13 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -7391,44 +7391,44 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -7489,13 +7489,13 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -7503,13 +7503,13 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -7517,13 +7517,13 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -7531,41 +7531,41 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
@@ -7629,16 +7629,16 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -7677,10 +7677,10 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -7691,10 +7691,10 @@
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -7713,30 +7713,30 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -7747,10 +7747,10 @@
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -7783,27 +7783,27 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -7811,30 +7811,30 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -7881,30 +7881,30 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -7965,16 +7965,16 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -7985,35 +7985,35 @@
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
@@ -8027,10 +8027,10 @@
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -8049,13 +8049,13 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
@@ -8111,10 +8111,10 @@
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -8125,10 +8125,10 @@
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -8175,16 +8175,16 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -8195,10 +8195,10 @@
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -8231,13 +8231,13 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -8273,44 +8273,44 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -8329,30 +8329,30 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
       </c>
       <c r="D161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -8363,35 +8363,35 @@
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -8399,13 +8399,13 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -8419,10 +8419,10 @@
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -8455,30 +8455,30 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
       </c>
       <c r="D169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -8511,16 +8511,16 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173" t="n">
         <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -8531,10 +8531,10 @@
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -8553,27 +8553,27 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D177" t="n">
         <v>0</v>
@@ -8587,7 +8587,7 @@
         <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D178" t="n">
         <v>1</v>
@@ -8609,16 +8609,16 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
       </c>
       <c r="D180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -8643,10 +8643,10 @@
         <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -8657,94 +8657,94 @@
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
       </c>
       <c r="D189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -8769,10 +8769,10 @@
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -8833,13 +8833,13 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D196" t="n">
         <v>0</v>
@@ -8861,13 +8861,13 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D198" t="n">
         <v>0</v>
@@ -8875,13 +8875,13 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199" t="n">
         <v>0</v>
@@ -8889,13 +8889,13 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D200" t="n">
         <v>0</v>
